--- a/New folder/triaging_template_Rule_014-New User Assigned to Privileged Role.xlsx
+++ b/New folder/triaging_template_Rule_014-New User Assigned to Privileged Role.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agentic AI\Projects\soc\triaging_template\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDEEE2B-A69B-47FE-9EA2-475162C53750}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A8906-3440-403F-8095-42D82C77D965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,52 +241,52 @@
   </si>
   <si>
     <t>TimeGenerated            AssignedUser              RoleName                   Initiator           Result
-2025-10-08 15:34:34     john.doe@contoso.com      Global Administrator       admin@contoso.com   Success
-2025-10-08 13:34:34     sarah.smith@contoso.com   Privileged Role Admin      it.manager@contoso.com Success  
-2025-10-08 11:34:34     mike.johnson@contoso.com  Security Administrator     admin@contoso.com   Success</t>
+2025-10-08 15:34:34     john.doe@abc.com      Global Administrator       admin@abc.com   Success
+2025-10-08 13:34:34     sarah.smith@abc.com   Privileged Role Admin      it.manager@abc.com Success  
+2025-10-08 11:34:34     mike.johnson@abc.com  Security Administrator     admin@abc.com   Success</t>
   </si>
   <si>
     <t>UserPrincipalName        DisplayName           Department    JobTitle               CreatedDateTime         AccountEnabled
-john.doe@contoso.com     John Doe             Sales         Sales Manager          2024-10-08 17:34:34    True
-sarah.smith@contoso.com  Sarah Smith          Marketing     Marketing Specialist   2025-04-11 17:34:34    True
-mike.johnson@contoso.com Mike Johnson         IT            IT Analyst             2025-07-10 17:34:34    True
-admin@contoso.com        System Administrator IT            Global Administrator   2022-10-09 17:34:34    True
-it.manager@contoso.com   IT Manager           IT            IT Manager             2023-10-09 17:34:34    True</t>
+john.doe@abc.com     John Doe             Sales         Sales Manager          2024-10-08 17:34:34    True
+sarah.smith@abc.com  Sarah Smith          Marketing     Marketing Specialist   2025-04-11 17:34:34    True
+mike.johnson@abc.com Mike Johnson         IT            IT Analyst             2025-07-10 17:34:34    True
+admin@abc.com        System Administrator IT            Global Administrator   2022-10-09 17:34:34    True
+it.manager@abc.com   IT Manager           IT            IT Manager             2023-10-09 17:34:34    True</t>
   </si>
   <si>
     <t>TimeGenerated            AssignedUser              RoleName                   InitiatedBy            SourceIP       CorrelationId
-2025-10-08 15:34:34     john.doe@contoso.com      Global Administrator       admin@contoso.com      192.168.1.100  ab123456-7890-1234-5678-90abcdef1234
-2025-10-08 13:34:34     sarah.smith@contoso.com   Privileged Role Admin      it.manager@contoso.com 10.0.0.50      cd567890-1234-5678-90ab-cdef12345678
-2025-10-08 11:34:34     mike.johnson@contoso.com  Security Administrator     admin@contoso.com      192.168.1.100  ef901234-5678-90ab-cdef-123456789012</t>
+2025-10-08 15:34:34     john.doe@abc.com      Global Administrator       admin@abc.com      192.168.1.100  ab123456-7890-1234-5678-90abcdef1234
+2025-10-08 13:34:34     sarah.smith@abc.com   Privileged Role Admin      it.manager@abc.com 10.0.0.50      cd567890-1234-5678-90ab-cdef12345678
+2025-10-08 11:34:34     mike.johnson@abc.com  Security Administrator     admin@abc.com      192.168.1.100  ef901234-5678-90ab-cdef-123456789012</t>
   </si>
   <si>
     <t>TimeGenerated            AssignedUser             RoleName                   Initiator              Result   RiskLevel
-2025-10-08 15:34:34     john.doe@contoso.com     Global Administrator       admin@contoso.com      Success  Critical
-2025-10-08 13:34:34     sarah.smith@contoso.com  Privileged Role Admin      it.manager@contoso.com Success  High</t>
+2025-10-08 15:34:34     john.doe@abc.com     Global Administrator       admin@abc.com      Success  Critical
+2025-10-08 13:34:34     sarah.smith@abc.com  Privileged Role Admin      it.manager@abc.com Success  High</t>
   </si>
   <si>
     <t>TimeGenerated            UserPrincipalName        IPAddress      Location          DeviceInfo                SigninStatus
-2025-10-08 16:34:34     john.doe@contoso.com     192.168.1.50   Seattle, WA, US   Windows 10 - Trusted     Success
-2025-10-08 14:34:34     john.doe@contoso.com     203.0.113.45   Unknown Location  Unknown Device           Success
-2025-10-08 12:34:34     sarah.smith@contoso.com  10.0.0.25      New York, NY, US  Windows 11 - Trusted     Success
-2025-10-08 09:34:34     sarah.smith@contoso.com  198.51.100.30  Unknown Location  Unknown Device           Success</t>
+2025-10-08 16:34:34     john.doe@abc.com     192.168.1.50   Seattle, WA, US   Windows 10 - Trusted     Success
+2025-10-08 14:34:34     john.doe@abc.com     203.0.113.45   Unknown Location  Unknown Device           Success
+2025-10-08 12:34:34     sarah.smith@abc.com  10.0.0.25      New York, NY, US  Windows 11 - Trusted     Success
+2025-10-08 09:34:34     sarah.smith@abc.com  198.51.100.30  Unknown Location  Unknown Device           Success</t>
   </si>
   <si>
     <t>TimeGenerated            InitiatedBy              OperationName           TargetUser               Role                     SourceIP       Result
-2025-10-08 15:34:34     admin@contoso.com        Add member to role      john.doe@contoso.com     Global Administrator     192.168.1.100  Success
-2025-10-08 13:34:34     it.manager@contoso.com   Add member to role      sarah.smith@contoso.com  Privileged Role Admin    10.0.0.50      Success
-2025-10-07 17:34:34     admin@contoso.com        Remove member from role temp.user@contoso.com    User Administrator       192.168.1.100  Success</t>
+2025-10-08 15:34:34     admin@abc.com        Add member to role      john.doe@abc.com     Global Administrator     192.168.1.100  Success
+2025-10-08 13:34:34     it.manager@abc.com   Add member to role      sarah.smith@abc.com  Privileged Role Admin    10.0.0.50      Success
+2025-10-07 17:34:34     admin@abc.com        Remove member from role temp.user@abc.com    User Administrator       192.168.1.100  Success</t>
   </si>
   <si>
     <t>UserPrincipalName        TotalSignIns  MFASuccess  MFAFailures  Methods                   MFASuccessRate
-john.doe@contoso.com     25           20          5            Phone, Authenticator App   80.00
-sarah.smith@contoso.com  18           15          3            SMS, Authenticator App     83.33
-mike.johnson@contoso.com 12           12          0            Authenticator App          100.00</t>
+john.doe@abc.com     25           20          5            Phone, Authenticator App   80.00
+sarah.smith@abc.com  18           15          3            SMS, Authenticator App     83.33
+mike.johnson@abc.com 12           12          0            Authenticator App          100.00</t>
   </si>
   <si>
     <t>InvestigationID  UserAffected             FindingsSummary                        RemediationActions                                     Status             AssignedAnalyst
-INV-2025-001     john.doe@contoso.com     Low risk - Normal pattern             Monitor for 7 days, no immediate action required      Closed - No Action L1-Analyst-01
-INV-2025-002     sarah.smith@contoso.com  High risk - Unknown devices detected  Force password reset, enable conditional access       In Progress        L2-Analyst-03</t>
+INV-2025-001     john.doe@abc.com     Low risk - Normal pattern             Monitor for 7 days, no immediate action required      Closed - No Action L1-Analyst-01
+INV-2025-002     sarah.smith@abc.com  High risk - Unknown devices detected  Force password reset, enable conditional access       In Progress        L2-Analyst-03</t>
   </si>
 </sst>
 </file>
@@ -710,8 +710,8 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,7 +898,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -940,5 +940,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/New folder/triaging_template_Rule_014-New User Assigned to Privileged Role.xlsx
+++ b/New folder/triaging_template_Rule_014-New User Assigned to Privileged Role.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agentic AI\Projects\soc\triaging_template\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A8906-3440-403F-8095-42D82C77D965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01435063-1175-4F92-866A-259C31436F6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,17 +711,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="65" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.109375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -798,7 +798,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="288" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A11" si="0">A4+1</f>
         <v>3</v>

--- a/New folder/triaging_template_Rule_014-New User Assigned to Privileged Role.xlsx
+++ b/New folder/triaging_template_Rule_014-New User Assigned to Privileged Role.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agentic AI\Projects\soc\triaging_template\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01435063-1175-4F92-866A-259C31436F6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3FBDB1-3D37-46F5-95E7-958F3A193FCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,7 +711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="288" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -858,7 +858,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f>A7+1</f>
         <v>6</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -918,7 +918,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="324" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="360" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
